--- a/OpFlix/OpFlix.xlsx
+++ b/OpFlix/OpFlix.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
+  <workbookPr showObjects="none" filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51F1BBF-3217-4934-B4A2-871AEFE7D234}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +20,275 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+  <si>
+    <t>Usuários</t>
+  </si>
+  <si>
+    <t>IdUsuário</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senha </t>
+  </si>
+  <si>
+    <t>TipoUser</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>2145-4882</t>
+  </si>
+  <si>
+    <t>77329-980</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Coluna2</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
+  </si>
+  <si>
+    <t>Coluna4</t>
+  </si>
+  <si>
+    <t>Coluna5</t>
+  </si>
+  <si>
+    <t>Coluna6</t>
+  </si>
+  <si>
+    <t>Coluna7</t>
+  </si>
+  <si>
+    <t>IdTipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TipoUser </t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>emerson@mail.com</t>
+  </si>
+  <si>
+    <t>1548-4858</t>
+  </si>
+  <si>
+    <t>78716-355</t>
+  </si>
+  <si>
+    <t>paolo@mail.com</t>
+  </si>
+  <si>
+    <t>8778-1814</t>
+  </si>
+  <si>
+    <t>75114-150</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Emerson Sheik</t>
+  </si>
+  <si>
+    <t>Paolo Guerrero</t>
+  </si>
+  <si>
+    <t>Romarinho da Silva</t>
+  </si>
+  <si>
+    <t>Jorge Henrique</t>
+  </si>
+  <si>
+    <t>jorgeh@mail.com</t>
+  </si>
+  <si>
+    <t>littleroma@mail.com</t>
+  </si>
+  <si>
+    <t>60130-230</t>
+  </si>
+  <si>
+    <t>9842-3697</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Lançamentos</t>
+  </si>
+  <si>
+    <t>Séries</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Animação</t>
+  </si>
+  <si>
+    <t>Animes</t>
+  </si>
+  <si>
+    <t>Aventura</t>
+  </si>
+  <si>
+    <t>Comédia</t>
+  </si>
+  <si>
+    <t>C. Romantica</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Fantasia</t>
+  </si>
+  <si>
+    <t>F. Científica</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>Terror</t>
+  </si>
+  <si>
+    <t>IdLancamento</t>
+  </si>
+  <si>
+    <t>TipoTitulo</t>
+  </si>
+  <si>
+    <t>IdTipoTitulo</t>
+  </si>
+  <si>
+    <t>Série</t>
+  </si>
+  <si>
+    <t>Filme</t>
+  </si>
+  <si>
+    <t>Sinopse</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Duração</t>
+  </si>
+  <si>
+    <t>Plataformas</t>
+  </si>
+  <si>
+    <t>IdPlataforma</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>GloboPlay</t>
+  </si>
+  <si>
+    <t>HBO</t>
+  </si>
+  <si>
+    <t>Vingadores Ultimato</t>
+  </si>
+  <si>
+    <t>Após Thanos eliminar metade das criaturas vivas, os Vingadores têm de lidar com a perda de amigos e entes queridos. Com Tony Stark vagando perdido no espaço sem água e comida, Steve Rogers e Natasha Romanov lideram a resistência contra o titã louco.</t>
+  </si>
+  <si>
+    <t>3h2m</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>A Cinco Passos de Você</t>
+  </si>
+  <si>
+    <t>Dois pacientes com fibrose cística se apaixonam, apesar das regras do hospital afirmarem que eles devem manter 1,5 metros de distância entre si.</t>
+  </si>
+  <si>
+    <t>1h 56m</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Um artista pobre e uma jovem rica se conhecem e se apaixonam na fatídica jornada do Titanic, em 1912. Embora esteja noiva do arrogante herdeiro de uma siderúrgica, a jovem desafia sua família e amigos em busca do verdadeiro amor.</t>
+  </si>
+  <si>
+    <t>3h 15m</t>
+  </si>
+  <si>
+    <t>O Rei Leão</t>
+  </si>
+  <si>
+    <t>Traído e exilado de seu reino, o leãozinho Simba precisa descobrir como crescer e retomar seu destino como herdeiro real nas planícies da savana africana.</t>
+  </si>
+  <si>
+    <t>1h 58m</t>
+  </si>
+  <si>
+    <t>Oito habilidosos ladrões se trancam na Casa da Moeda da Espanha com o ambicioso plano de realizar o maior roubo da história e levar com eles mais de 2 bilhões de euros. Para isso, a gangue precisa lidar com as dezenas de pessoas que manteve como refém, além dos agentes da força de elite da polícia, que farão de tudo para que a investida dos criminosos fracasse.</t>
+  </si>
+  <si>
+    <t>45m</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Suspense</t>
+  </si>
+  <si>
+    <t>Quando Will (Noah Schnapp), um menino de doze anos, desaparece misteriosamente, o xerife Jim Hopper (David Harbour) inicia uma operação para encontrá-lo. Enquanto isso, Mike (Finn Wolfhard), Dustin (Gaten Matarazzo) e Lucas (Caleb McLaughlin), melhores amigos do garoto, decidem procurar Will por conta própria. Mas as investigações acabam os levando a experimentos secretos do governo e a uma peculiar menina perdida na floresta.</t>
+  </si>
+  <si>
+    <t>ListaFavoritos</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>La Casa de Papel 3°Temp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +296,91 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,17 +388,502 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="43">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +894,128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73FBDB3E-D802-43DE-B55A-E980C58AB4D1}" name="Tabela2" displayName="Tabela2" ref="B9:C12" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="B9:C12" xr:uid="{39257533-F104-4C75-8DC9-98D8CC68B216}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5DB35255-F039-42C9-AB38-24AEE2CBCE00}" name="Coluna1" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{1E4C9E4F-BB0B-4780-8E34-78FBCC336A6A}" name="TipoUser " dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{92A8E0B8-F335-4D55-8270-82DCA6B1135B}" name="Tabela3" displayName="Tabela3" ref="B1:I6" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="B1:I6" xr:uid="{C78439EE-703D-4FFC-A566-BACA5C4EEA9D}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B7A399A1-8155-473B-8CEF-6B1A4CCB9F14}" name="Coluna1" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{BAE7DE75-E67F-4B59-96EA-EA65AD518DDD}" name="Coluna2" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{CD3354B9-8664-4320-9E17-A5B1A44FD3A2}" name="Usuários" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{F52FDED5-05C0-4743-A26D-E477CDEB52AA}" name="Coluna3" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{353DE9F3-2DC6-4F71-9E41-087460DFDE68}" name="Coluna4" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{386E5507-4454-4C01-B2BD-D9BF8FE4CB7C}" name="Coluna5" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{B500009E-DEDC-4A11-938B-3C95ADDC90C2}" name="Coluna6" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{4304CD29-7208-4E16-9386-69D74FB072C2}" name="Coluna7" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7205BE50-9A6D-4410-A0AE-7F748E8F9907}" name="Tabela4" displayName="Tabela4" ref="E9:F24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="E9:F24" xr:uid="{EA8E9812-DBA3-43F6-AC29-C2DC7F6CC6E1}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AF56D205-491B-486E-95B8-B55E998716E6}" name="Coluna1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{750F0408-64E3-4978-A929-BCB56E07A19C}" name="Categorias" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{080D39FD-73DF-4EEC-89AA-7D59FB2D8445}" name="Tabela26" displayName="Tabela26" ref="B15:C18" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="B15:C18" xr:uid="{021F976D-872C-4C7F-89AC-C6F0EE43381A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{63EECF1B-C6FB-4862-8243-BB6D7F23264A}" name="Coluna1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{4D79C42D-FCB0-42B9-9E22-FDC9DD7F4E73}" name="TipoTitulo" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BA96FD75-A579-461C-9CA8-22E0FAE83DAC}" name="Tabela6" displayName="Tabela6" ref="B20:C25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B20:C25" xr:uid="{8F0E5456-199D-4329-9996-0E0030484538}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E521B937-1459-4A15-894B-482357A68B7D}" name="Coluna1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4EBC680A-3D49-4A93-B78A-2546A101873A}" name="Plataformas" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{60EF60DA-B270-4709-A6CA-16ED86B6A329}" name="Tabela7" displayName="Tabela7" ref="I10:P17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="I10:P17" xr:uid="{9B986DE1-CEEE-4FAC-A910-28A3AD900264}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A237C7F8-F3F2-4942-9CA0-4E3EFCDAA9A9}" name="Coluna1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{06DBF787-59AC-433B-94B7-2C3195B68FB2}" name="Lançamentos" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FBB302D8-62C4-47CB-A0BF-CB6F9881F13A}" name="Coluna2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{E4EBD796-CEFA-43CF-9410-C05BCE9AE238}" name="Coluna3" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4A8D5774-0DF5-4AAB-9D63-469EEDE16476}" name="Coluna4" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A12B6252-B459-4532-BAB6-BB5391CA1A2D}" name="Coluna5" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C72E205D-C4C1-4E5C-880C-3D6F28F5D399}" name="Coluna6" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{39BC6FDA-9710-4D43-AFE3-438486C71977}" name="Coluna7" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{BE0CC974-35E7-4E55-929F-D0FE5BCF4DE6}" name="Tabela10" displayName="Tabela10" ref="I19:J24" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="I19:J24" xr:uid="{F3604999-9266-4EA4-98AD-B73570EAC685}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C86AFA94-523A-479E-B224-F62126FF2F7D}" name="Coluna1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{07F8A2A3-AA75-4B5F-815D-2CEEC43E5B61}" name="ListaFavoritos" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1280,652 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12">
+        <v>123</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12">
+        <v>18</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
+        <v>213</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2">
+        <v>98</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2">
+        <v>321</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
+        <v>231</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2">
+        <v>74</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="1">
+        <v>11</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="19">
+        <v>43580</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="1">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="19">
+        <v>43545</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="1">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" s="19">
+        <v>35811</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="19">
+        <v>43664</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="19">
+        <v>43664</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="1">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1">
+        <v>45</v>
+      </c>
+      <c r="O17" s="19">
+        <v>43650</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{FDC8E17F-1BD7-42F0-9874-A5A39EE588BA}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{D19E3A6D-3420-413D-9DA8-CDFBDB62E1BE}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E3DA290E-5163-44FF-9867-BD747455D3A7}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{97D241D5-A99A-4BD5-9902-849B556E30A7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <tableParts count="7">
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+  </tableParts>
 </worksheet>
 </file>